--- a/final report/precisionRate_bag.xlsx
+++ b/final report/precisionRate_bag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\期末報告資料處理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{94CA0614-8937-445F-BE47-0915F36206AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D019C-8015-A747-BE86-25178AB2BE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="7920" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_bag" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,100 @@
     <sheet name="通訊" sheetId="2" r:id="rId5"/>
     <sheet name="統整" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">precisionRate_bag!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_bag!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_bag!$H$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_bag!$I$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_bag!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">precisionRate_bag!$H$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">precisionRate_bag!$I$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">precisionRate_bag!$B$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">precisionRate_bag!$H$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">precisionRate_bag!$I$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">precisionRate_bag!$F$49</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">precisionRate_bag!$B$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">precisionRate_bag!$H$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">precisionRate_bag!$I$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">precisionRate_bag!$B$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_bag!$H$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_bag!$I$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">precisionRate_bag!$H$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">precisionRate_bag!$B$1</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">precisionRate_bag!$H$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">precisionRate_bag!$B$1</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">precisionRate_bag!$H$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_bag!$I$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -190,12 +283,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -203,7 +296,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -211,7 +304,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -220,7 +313,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -229,7 +322,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -238,7 +331,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -246,7 +339,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -254,7 +347,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -262,7 +355,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -270,7 +363,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -279,7 +372,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -288,7 +381,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -296,7 +389,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -305,7 +398,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -313,7 +406,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -322,7 +415,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -331,7 +424,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -339,14 +432,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -354,7 +447,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -832,9 +925,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,53 +940,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -911,8 +1004,1567 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Bagging</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Bagging</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{BB9C5426-B747-884B-9133-E3CCB5D9F0EA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6DAA2E87-F8DB-434D-AF89-5E7FA8598F6F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{23A3C9E6-8C1D-694E-AF3E-2A1889AD7B83}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{43B8B731-6A08-914C-A9C6-8264DE391C1D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{43C0C95D-E901-A641-A6A5-0C3524472393}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.60000000000000009"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.71</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.73</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.75</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.77</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.78</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Bagging</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Bagging</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{BB9C5426-B747-884B-9133-E3CCB5D9F0EA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6DAA2E87-F8DB-434D-AF89-5E7FA8598F6F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{23A3C9E6-8C1D-694E-AF3E-2A1889AD7B83}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{43B8B731-6A08-914C-A9C6-8264DE391C1D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{43C0C95D-E901-A641-A6A5-0C3524472393}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.60000000000000009"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B5115C-01EE-E1EC-6176-D4B4E25C3255}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5124450" y="10020300"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D43057-CE71-274A-A3D2-1A917AAB5D72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5994400" y="2578100"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1207,16 +2859,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:X47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S65" sqref="S65:S66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +2942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -1364,7 +3016,7 @@
         <v>4.2887103991377497E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -1438,7 +3090,7 @@
         <v>2.4632897713342299E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -1512,7 +3164,7 @@
         <v>3.7760601221051501E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -1586,7 +3238,7 @@
         <v>8.6975367111975205E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -1660,7 +3312,7 @@
         <v>4.7741071583717903E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -1734,7 +3386,7 @@
         <v>6.00149349159248E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -1808,7 +3460,7 @@
         <v>3.4957469167399197E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -1882,7 +3534,7 @@
         <v>3.3374726518788998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -1956,7 +3608,7 @@
         <v>6.8046755228273303E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -2030,7 +3682,7 @@
         <v>3.3481940234755002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -2104,7 +3756,7 @@
         <v>2.7168923454827298E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -2178,7 +3830,7 @@
         <v>3.4430286972697899E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -2252,7 +3904,7 @@
         <v>0.126372457054962</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -2326,7 +3978,7 @@
         <v>4.21803935599099E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -2400,7 +4052,7 @@
         <v>2.7988703904912302E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -2474,7 +4126,7 @@
         <v>2.30454198425817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -2548,7 +4200,7 @@
         <v>6.6534595695554005E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -2622,7 +4274,7 @@
         <v>3.3371918761736098E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -2696,7 +4348,7 @@
         <v>4.7750561337968102E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -2770,7 +4422,7 @@
         <v>2.44497834161608E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -2844,7 +4496,7 @@
         <v>5.88253077280224E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -2918,7 +4570,7 @@
         <v>4.75647966106095E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -2992,7 +4644,7 @@
         <v>3.2141352098946502E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -3066,7 +4718,7 @@
         <v>8.2429591460633306E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -3140,7 +4792,7 @@
         <v>3.4482668517460999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -3214,7 +4866,7 @@
         <v>4.8945968129095699E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -3288,7 +4940,7 @@
         <v>2.31876848334229E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -3362,7 +5014,7 @@
         <v>8.3854948271767205E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -3436,7 +5088,7 @@
         <v>2.70377172861688E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -3510,7 +5162,7 @@
         <v>3.2566368879503101E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -3584,7 +5236,7 @@
         <v>6.5782206720965505E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -3658,7 +5310,7 @@
         <v>3.1498802552763099E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -3732,7 +5384,7 @@
         <v>5.0812065247019103E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -3806,7 +5458,7 @@
         <v>2.4899992588298701E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -3880,7 +5532,7 @@
         <v>4.7233116427160902E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -3954,7 +5606,7 @@
         <v>8.6739271962665093E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -4028,7 +5680,7 @@
         <v>3.19650522492241E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -4102,7 +5754,7 @@
         <v>0.104181583970339</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -4176,7 +5828,7 @@
         <v>5.5109753429522998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -4250,7 +5902,7 @@
         <v>0.115379534647057</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -4347,7 +5999,7 @@
         <v>2.30454198425817E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -4444,7 +6096,7 @@
         <v>3.2097277136515903E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -4541,7 +6193,7 @@
         <v>4.2533748775643698E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -4638,7 +6290,7 @@
         <v>6.145675286718498E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -4735,7 +6387,7 @@
         <v>0.126372457054962</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -4835,20 +6487,21 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_bag!A$1</f>
         <v>StockName</v>
@@ -4946,7 +6599,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_bag!A$31</f>
         <v>2330</v>
@@ -5044,7 +6697,7 @@
         <v>3.2566368879503101E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_bag!A$12</f>
         <v>2454</v>
@@ -5142,7 +6795,7 @@
         <v>2.7168923454827298E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_bag!A$28</f>
         <v>3034</v>
@@ -5240,7 +6893,7 @@
         <v>2.31876848334229E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_bag!A$18</f>
         <v>2379</v>
@@ -5338,7 +6991,7 @@
         <v>6.6534595695554005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_bag!A$25</f>
         <v>2408</v>
@@ -5436,7 +7089,7 @@
         <v>8.2429591460633306E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_bag!A$4</f>
         <v>2344</v>
@@ -5534,7 +7187,7 @@
         <v>3.7760601221051501E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_bag!A$37</f>
         <v>2337</v>
@@ -5632,7 +7285,7 @@
         <v>8.6739271962665093E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_bag!A$35</f>
         <v>3035</v>
@@ -5730,7 +7383,7 @@
         <v>2.4899992588298701E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_bag!A$5</f>
         <v>2449</v>
@@ -5828,7 +7481,7 @@
         <v>8.6975367111975205E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_bag!A$33</f>
         <v>2468</v>
@@ -5926,7 +7579,7 @@
         <v>3.1498802552763099E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -6023,7 +7676,7 @@
         <v>2.31876848334229E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -6120,7 +7773,7 @@
         <v>2.825139322931125E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -6217,7 +7870,7 @@
         <v>3.5163485050277304E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -6314,7 +7967,7 @@
         <v>7.8455842519363481E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -6411,7 +8064,7 @@
         <v>8.6975367111975205E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -6515,16 +8168,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_bag!A$1</f>
         <v>StockName</v>
@@ -6622,7 +8275,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_bag!A$16</f>
         <v>1216</v>
@@ -6720,7 +8373,7 @@
         <v>2.7988703904912302E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_bag!A$36</f>
         <v>1229</v>
@@ -6818,7 +8471,7 @@
         <v>4.7233116427160902E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_bag!A$17</f>
         <v>1434</v>
@@ -6916,7 +8569,7 @@
         <v>2.30454198425817E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_bag!A$30</f>
         <v>1227</v>
@@ -7014,7 +8667,7 @@
         <v>2.70377172861688E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_bag!A$2</f>
         <v>1210</v>
@@ -7112,7 +8765,7 @@
         <v>4.2887103991377497E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_bag!A$10</f>
         <v>1232</v>
@@ -7210,7 +8863,7 @@
         <v>6.8046755228273303E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_bag!A$9</f>
         <v>1215</v>
@@ -7308,7 +8961,7 @@
         <v>3.3374726518788998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_bag!A$3</f>
         <v>1231</v>
@@ -7406,7 +9059,7 @@
         <v>2.4632897713342299E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_bag!A$23</f>
         <v>1218</v>
@@ -7504,7 +9157,7 @@
         <v>4.75647966106095E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_bag!A$24</f>
         <v>1702</v>
@@ -7602,7 +9255,7 @@
         <v>3.2141352098946502E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -7699,7 +9352,7 @@
         <v>2.30454198425817E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -7796,7 +9449,7 @@
         <v>2.7275463940854675E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -7893,7 +9546,7 @@
         <v>3.2758039308867754E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -7990,7 +9643,7 @@
         <v>4.6146613318215055E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -8087,7 +9740,7 @@
         <v>6.8046755228273303E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -8191,16 +9844,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_bag!A$1</f>
         <v>StockName</v>
@@ -8298,7 +9951,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_bag!A$6</f>
         <v>2603</v>
@@ -8396,7 +10049,7 @@
         <v>4.7741071583717903E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_bag!A$20</f>
         <v>2609</v>
@@ -8494,7 +10147,7 @@
         <v>4.7750561337968102E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_bag!A$34</f>
         <v>2615</v>
@@ -8592,7 +10245,7 @@
         <v>5.0812065247019103E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_bag!A$40</f>
         <v>2618</v>
@@ -8690,7 +10343,7 @@
         <v>5.5109753429522998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_bag!A$27</f>
         <v>2610</v>
@@ -8788,7 +10441,7 @@
         <v>4.8945968129095699E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_bag!A$21</f>
         <v>2637</v>
@@ -8886,7 +10539,7 @@
         <v>2.44497834161608E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_bag!A$7</f>
         <v>2633</v>
@@ -8984,7 +10637,7 @@
         <v>6.00149349159248E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_bag!A$26</f>
         <v>2459</v>
@@ -9082,7 +10735,7 @@
         <v>3.4482668517460999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_bag!A$13</f>
         <v>2607</v>
@@ -9180,7 +10833,7 @@
         <v>3.4430286972697899E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_bag!A$14</f>
         <v>2634</v>
@@ -9278,7 +10931,7 @@
         <v>0.126372457054962</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -9375,7 +11028,7 @@
         <v>2.44497834161608E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -9472,7 +11125,7 @@
         <v>3.7797269284025228E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -9569,7 +11222,7 @@
         <v>4.8348264733531904E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -9666,7 +11319,7 @@
         <v>5.4035331383897024E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -9763,7 +11416,7 @@
         <v>0.126372457054962</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -9867,16 +11520,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_bag!A$1</f>
         <v>StockName</v>
@@ -9974,7 +11627,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_bag!A$32</f>
         <v>2412</v>
@@ -10072,7 +11725,7 @@
         <v>6.5782206720965505E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_bag!A$41</f>
         <v>3045</v>
@@ -10170,7 +11823,7 @@
         <v>0.115379534647057</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_bag!A$22</f>
         <v>4904</v>
@@ -10268,7 +11921,7 @@
         <v>5.88253077280224E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_bag!A$11</f>
         <v>2345</v>
@@ -10366,7 +12019,7 @@
         <v>3.3481940234755002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_bag!A$39</f>
         <v>2498</v>
@@ -10464,7 +12117,7 @@
         <v>0.104181583970339</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_bag!A$8</f>
         <v>3596</v>
@@ -10562,7 +12215,7 @@
         <v>3.4957469167399197E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_bag!A$15</f>
         <v>3682</v>
@@ -10660,7 +12313,7 @@
         <v>4.21803935599099E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_bag!A$29</f>
         <v>5388</v>
@@ -10758,7 +12411,7 @@
         <v>8.3854948271767205E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_bag!A$19</f>
         <v>2455</v>
@@ -10856,7 +12509,7 @@
         <v>3.3371918761736098E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_bag!A$38</f>
         <v>2439</v>
@@ -10954,7 +12607,7 @@
         <v>3.19650522492241E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -11051,7 +12704,7 @@
         <v>3.19650522492241E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -11148,7 +12801,7 @@
         <v>3.3850822467916049E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -11245,7 +12898,7 @@
         <v>5.0502850643966146E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -11342,7 +12995,7 @@
         <v>7.9336762884066783E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -11439,7 +13092,7 @@
         <v>0.115379534647057</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -11543,428 +13196,428 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F30"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>precisionRate_bag!B42</f>
         <v>0.69736842105263097</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f>precisionRate_bag!C42</f>
         <v>0.72868217054263495</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>precisionRate_bag!G42</f>
         <v>0.61788617886178798</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>precisionRate_bag!H42</f>
         <v>0.68571428571428505</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>precisionRate_bag!E42</f>
         <v>0.75320097454771595</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <f>precisionRate_bag!V42</f>
         <v>0.48783935302870102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>半導體!$B$12</f>
         <v>0.71311475409836</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>半導體!$B$13</f>
         <v>0.77534691585786453</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>半導體!$B$14</f>
         <v>0.79527683854606901</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>半導體!$B$15</f>
         <v>0.81936252268602472</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>半導體!$B$16</f>
         <v>0.83486238532110002</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>precisionRate_bag!B43</f>
         <v>0.75</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <f>precisionRate_bag!C43</f>
         <v>0.85377789377528324</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>precisionRate_bag!G43</f>
         <v>0.81424116424116377</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f>precisionRate_bag!H43</f>
         <v>0.77605408151303146</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>precisionRate_bag!E43</f>
         <v>0.81167579116890276</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <f>precisionRate_bag!V43</f>
         <v>0.62492404358094422</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>食品!$B$12</f>
         <v>0.70297029702970204</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>食品!$B$13</f>
         <v>0.74207746478873171</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>食品!$B$14</f>
         <v>0.79843685726038649</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>食品!$B$15</f>
         <v>0.86149609097370272</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>食品!$B$16</f>
         <v>0.891891891891891</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>precisionRate_bag!B44</f>
         <v>0.79527683854606901</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>precisionRate_bag!C44</f>
         <v>0.88991218676376049</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f>precisionRate_bag!G44</f>
         <v>0.86491677336747697</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f>precisionRate_bag!H44</f>
         <v>0.83161512027491358</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>precisionRate_bag!E44</f>
         <v>0.83814428703591193</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>precisionRate_bag!V44</f>
         <v>0.67933398360454644</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>航運!$B$12</f>
         <v>0.69736842105263097</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>航運!$B$13</f>
         <v>0.70884520884520819</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>航運!$B$14</f>
         <v>0.74914965986394555</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>航運!$B$15</f>
         <v>0.80460858585858552</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>航運!$B$16</f>
         <v>0.85714285714285698</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>precisionRate_bag!B45</f>
         <v>0.83284147045614898</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>precisionRate_bag!C45</f>
         <v>0.9172292245246737</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>precisionRate_bag!G45</f>
         <v>0.90259534378113926</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>precisionRate_bag!H45</f>
         <v>0.88474159146841602</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>precisionRate_bag!E45</f>
         <v>0.86616936492859775</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f>precisionRate_bag!V45</f>
         <v>0.73427342160457543</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <f>通訊!$B$12</f>
         <v>0.75247524752475203</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>通訊!$B$13</f>
         <v>0.79088235294117626</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>通訊!$B$14</f>
         <v>0.82952602952602894</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>通訊!$B$15</f>
         <v>0.85403732586311298</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>通訊!$B$16</f>
         <v>0.90277777777777701</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>precisionRate_bag!B46</f>
         <v>0.90277777777777701</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>precisionRate_bag!C46</f>
         <v>0.96799999999999997</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>precisionRate_bag!G46</f>
         <v>0.97080291970802901</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f>precisionRate_bag!H46</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>precisionRate_bag!E46</f>
         <v>0.89323764427345298</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f>precisionRate_bag!V46</f>
         <v>0.80193191334108505</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>半導體!$C$12</f>
         <v>0.848101265822784</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>半導體!$C$13</f>
         <v>0.8868408301703945</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>半導體!$C$14</f>
         <v>0.90125367590156302</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>半導體!$C$15</f>
         <v>0.91744372329937507</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f>半導體!$C$16</f>
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>食品!$C$12</f>
         <v>0.72868217054263495</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f>食品!$C$13</f>
         <v>0.84495200853181607</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>食品!$C$14</f>
         <v>0.87367684367071952</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>食品!$C$15</f>
         <v>0.90711616318903698</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>食品!$C$16</f>
         <v>0.92528735632183901</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>航運!$C$12</f>
         <v>0.78181818181818097</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>航運!$C$13</f>
         <v>0.90618336886993522</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>航運!$C$14</f>
         <v>0.92474577497919097</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f>航運!$C$15</f>
         <v>0.94201221769714849</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>航運!$C$16</f>
         <v>0.95375722543352603</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <f>通訊!$C$12</f>
         <v>0.74742268041237103</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>通訊!$C$13</f>
         <v>0.82513979496738077</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>通訊!$C$14</f>
         <v>0.85156428408312346</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>通訊!$C$15</f>
         <v>0.86625766871165577</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>通訊!$C$16</f>
         <v>0.88679245283018804</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
@@ -11974,125 +13627,125 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>半導體!$G$12</f>
         <v>0.76344086021505297</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>半導體!$G$13</f>
         <v>0.81195426195426124</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>半導體!$G$14</f>
         <v>0.85482804232804199</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>半導體!$G$15</f>
         <v>0.90151187320819992</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>半導體!$G$16</f>
         <v>0.97080291970802901</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>食品!$G$12</f>
         <v>0.71717171717171702</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f>食品!$G$13</f>
         <v>0.81625518111371353</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>食品!$G$14</f>
         <v>0.85882548108825407</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f>食品!$G$15</f>
         <v>0.8770959757266048</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>食品!$G$16</f>
         <v>0.88983050847457601</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>航運!$G$12</f>
         <v>0.81052631578947298</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>航運!$G$13</f>
         <v>0.88088944176644324</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>航運!$G$14</f>
         <v>0.90529560100868545</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>航運!$G$15</f>
         <v>0.91666666666666596</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>航運!$G$16</f>
         <v>0.93805309734513198</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <f>通訊!$G$12</f>
         <v>0.61788617886178798</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f>通訊!$G$13</f>
         <v>0.8135708227311278</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f>通訊!$G$14</f>
         <v>0.84908522134799447</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f>通訊!$G$15</f>
         <v>0.86503250270855847</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f>通訊!$G$16</f>
         <v>0.92105263157894701</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -12102,125 +13755,125 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>半導體!$H$12</f>
         <v>0.75925925925925897</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f>半導體!$H$13</f>
         <v>0.81036725955204203</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>半導體!$H$14</f>
         <v>0.85312061711079901</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f>半導體!$H$15</f>
         <v>0.89271938283510099</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f>半導體!$H$16</f>
         <v>0.90769230769230702</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>食品!$H$12</f>
         <v>0.772151898734177</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f>食品!$H$13</f>
         <v>0.80428112215078817</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>食品!$H$14</f>
         <v>0.83841784136334896</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f>食品!$H$15</f>
         <v>0.87047546012269894</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f>食品!$H$16</f>
         <v>0.90058479532163704</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>航運!$H$12</f>
         <v>0.71666666666666601</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <f>航運!$H$13</f>
         <v>0.74829266778419301</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>航運!$H$14</f>
         <v>0.78633116883116849</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f>航運!$H$15</f>
         <v>0.84015151515151476</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f>航運!$H$16</f>
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>通訊!$H$12</f>
         <v>0.68571428571428505</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f>通訊!$H$13</f>
         <v>0.78058735789728251</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f>通訊!$H$14</f>
         <v>0.85330823023130653</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f>通訊!$H$15</f>
         <v>0.89299440950384279</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f>通訊!$H$16</f>
         <v>0.900709219858156</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>36</v>
       </c>
@@ -12230,120 +13883,120 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>半導體!$D$12</f>
         <v>0.8</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>半導體!$D$13</f>
         <v>0.83135593220338977</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f>半導體!$D$14</f>
         <v>0.85884353741496544</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f>半導體!$D$15</f>
         <v>0.87191859794765303</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f>半導體!$D$16</f>
         <v>0.908474576271186</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>食品!$D$12</f>
         <v>0.78305084745762699</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f>食品!$D$13</f>
         <v>0.80762711864406744</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f>食品!$D$14</f>
         <v>0.84067796610169454</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f>食品!$D$15</f>
         <v>0.86627234337941772</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f>食品!$D$16</f>
         <v>0.89152542372881305</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>航運!$D$12</f>
         <v>0.77165354330708602</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f>航運!$D$13</f>
         <v>0.81758474576271123</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <f>航運!$D$14</f>
         <v>0.83578015952143492</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f>航運!$D$15</f>
         <v>0.86819727891156373</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f>航運!$D$16</f>
         <v>0.90169491525423695</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>通訊!$D$12</f>
         <v>0.75342465753424603</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f>通訊!$D$13</f>
         <v>0.79840666357093093</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f>通訊!$D$14</f>
         <v>0.84059528730880495</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f>通訊!$D$15</f>
         <v>0.86095850379894756</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f>通訊!$D$16</f>
         <v>0.88135593220338904</v>
       </c>
@@ -12358,5 +14011,6 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final report/precisionRate_bag.xlsx
+++ b/final report/precisionRate_bag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D019C-8015-A747-BE86-25178AB2BE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CF1452-BA92-0B4A-A044-B6C206ABD149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_bag" sheetId="1" r:id="rId1"/>
@@ -23,83 +23,92 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_bag!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_bag!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_bag!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_bag!$G$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_bag!$H$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_bag!$I$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_bag!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_bag!$B$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_bag!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">precisionRate_bag!$G$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">precisionRate_bag!$H$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">precisionRate_bag!$I$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">precisionRate_bag!$B$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">precisionRate_bag!$C$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">precisionRate_bag!$G$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">precisionRate_bag!$H$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">precisionRate_bag!$I$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">食品!$B$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_bag!$G$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">precisionRate_bag!$F$49</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">precisionRate_bag!$B$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">precisionRate_bag!$C$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">precisionRate_bag!$G$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">precisionRate_bag!$H$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">precisionRate_bag!$I$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">食品!$I$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">航運!$B$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">precisionRate_bag!$B$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_bag!$C$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_bag!$G$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_bag!$H$1</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_bag!$I$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">航運!$I$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">通訊!$B$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">precisionRate_bag!$H$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">precisionRate_bag!$B$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">precisionRate_bag!$C$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">precisionRate_bag!$G$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">precisionRate_bag!$H$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">通訊!$I$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">通訊!$B$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">precisionRate_bag!$B$1</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">precisionRate_bag!$C$1</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">precisionRate_bag!$G$1</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">precisionRate_bag!$H$1</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_bag!$I$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">通訊!$I$1</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">precisionRate_bag!$B$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">precisionRate_bag!$H$1</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">半導體!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1009,27 +1018,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1067,7 +1076,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BB9C5426-B747-884B-9133-E3CCB5D9F0EA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1080,7 +1089,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6DAA2E87-F8DB-434D-AF89-5E7FA8598F6F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1093,7 +1102,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{23A3C9E6-8C1D-694E-AF3E-2A1889AD7B83}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1106,7 +1115,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{43B8B731-6A08-914C-A9C6-8264DE391C1D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1119,6 +1128,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{43C0C95D-E901-A641-A6A5-0C3524472393}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1150,27 +1160,648 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.71</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.73</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.75</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.77</cx:f>
+        <cx:f>_xlchart.v1.36</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.78</cx:f>
+        <cx:f>_xlchart.v1.38</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Bagging_半導體</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Bagging_半導體</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{60245661-6B7B-FD4E-8C67-BB97938F9A9F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DD7C04AE-ED29-1B4F-8B41-BF4C7C59B2B1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.31</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A49504C4-191E-984A-86E3-E8C5BEB8D867}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.33</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{63000543-A23C-C64F-A2FC-A91E27944665}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.35</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CADE341D-668C-3A44-A415-8885BDD90BA6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.60000000000000009"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.40</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.42</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.44</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.46</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.48</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Bagging_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 食品</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{48EC3786-ECF3-DF4E-813D-9F64E9C49DDA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.39</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BB627CCA-E60F-4544-9275-56585D9222A4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.41</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{824195ED-E0D0-A14E-BE02-A3FE691860B8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{AAA422D2-0306-9C4A-9EE5-E6AADABA55F6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3056638D-75F4-F648-B78D-E8265313167C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.59999999999999998"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.50</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.52</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.54</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.56</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.58</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Bagging_航運</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{0790E403-8102-DF40-83A2-B0A7C0F7BF96}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{93A6DE90-B652-1848-BF31-5DBA80E7559C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3EBB7E09-E8D2-2847-8F8D-ABBAEB4CC017}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6D5C393A-7BA6-154D-B6AA-DD4757426A30}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D5A1BB1E-42AC-9A44-8DCA-63D001E41486}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.59999999999999998"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.60</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.62</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.64</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.66</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.68</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Bagging_通訊</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{B110F277-1F99-1C4E-9FBA-4CB1FCF8C27B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D12FCF8C-CD78-A040-B0EE-8C2BD00DA638}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{16352244-F1CC-FC40-97C7-869A142CB421}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E113C1BC-7889-104A-BF9F-9214F5EF31C8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4445C655-B1D4-3E48-93DD-4F34150F1EF8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.59999999999999998"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.80</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.82</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.84</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.86</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.87</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1208,7 +1839,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BB9C5426-B747-884B-9133-E3CCB5D9F0EA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:f>_xlchart.v1.79</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1221,7 +1852,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6DAA2E87-F8DB-434D-AF89-5E7FA8598F6F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:f>_xlchart.v1.81</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1234,7 +1865,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{23A3C9E6-8C1D-694E-AF3E-2A1889AD7B83}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:f>_xlchart.v1.83</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1247,7 +1878,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{43B8B731-6A08-914C-A9C6-8264DE391C1D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:f>_xlchart.v1.85</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1367,6 +1998,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1883,6 +2674,2066 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2481,6 +5332,338 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0E9B8D-88CF-6AB9-C3A2-B2CA1979FA9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6464300" y="4318000"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EFC0B1-7E8A-70B4-1108-4E7DD49CB6B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6464300" y="4318000"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15F65E3-5B35-2396-937B-E87714E2DA55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6464300" y="4318000"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A12534F-DA9C-E12D-F831-EF28B1E39443}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7023100" y="4673600"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6496,7 +9679,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:X17"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8164,6 +11347,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8172,7 +11356,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9840,6 +13024,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9848,7 +13033,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11516,6 +14701,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11523,8 +14709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13192,6 +16378,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13199,7 +16386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>

--- a/final report/precisionRate_bag.xlsx
+++ b/final report/precisionRate_bag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\uki-uki-diasuki\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CF1452-BA92-0B4A-A044-B6C206ABD149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5613EB-C939-4122-A970-0DE6926EEAD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="21105" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_bag" sheetId="1" r:id="rId1"/>
@@ -23,111 +23,73 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_bag!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_bag!$H$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_bag!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">食品!$C$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">航運!$C$2:$C$11</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_bag!$G$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">食品!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">食品!$C$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">食品!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">食品!$G$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">食品!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">食品!$H$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">食品!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">食品!$I$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">食品!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">通訊!$G$2:$G$11</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">航運!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">航運!$C$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">航運!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">航運!$G$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">航運!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">航運!$H$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">航運!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">航運!$I$1</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">航運!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_bag!$B$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_bag!$C$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_bag!$G$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_bag!$H$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">precisionRate_bag!$H$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">通訊!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">通訊!$C$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">通訊!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">通訊!$G$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">通訊!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">通訊!$H$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">通訊!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">通訊!$I$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">通訊!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">通訊!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">通訊!$C$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">通訊!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">通訊!$G$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">通訊!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">通訊!$H$1</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">通訊!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">通訊!$I$1</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">通訊!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">precisionRate_bag!$B$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">precisionRate_bag!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">precisionRate_bag!$C$1</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">precisionRate_bag!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">precisionRate_bag!$G$1</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">precisionRate_bag!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">precisionRate_bag!$H$1</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">precisionRate_bag!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">precisionRate_bag!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_bag!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
   <si>
     <t>StockName</t>
   </si>
@@ -288,6 +250,10 @@
     <t>percision 1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +263,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -305,7 +271,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -313,7 +279,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -322,7 +288,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -331,7 +297,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -340,7 +306,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -348,7 +314,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -356,7 +322,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -364,7 +330,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -372,7 +338,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -381,7 +347,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -390,7 +356,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -398,7 +364,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -407,7 +373,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -415,7 +381,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -424,7 +390,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -433,7 +399,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -441,14 +407,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -456,7 +422,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -957,48 +923,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1011,6 +977,669 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>bagging</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>半導體</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83135593220338977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85884353741496544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87191859794765303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.908474576271186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFFF-4B2D-9BF6-2D485906442B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>食品</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.78305084745762699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80762711864406744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84067796610169454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86627234337941772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89152542372881305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFFF-4B2D-9BF6-2D485906442B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>航運</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77165354330708602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81758474576271123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83578015952143492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86819727891156373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90169491525423695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FFFF-4B2D-9BF6-2D485906442B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通訊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75342465753424603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79840666357093093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84059528730880495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86095850379894756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88135593220338904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FFFF-4B2D-9BF6-2D485906442B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="444492464"/>
+        <c:axId val="390898336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="444492464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390898336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390898336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.92"/>
+          <c:min val="0.75000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444492464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1140,7 +1769,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1.5"/>
+        <cx:catScaling gapWidth="0.100000001"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -1160,27 +1789,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.38</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1218,7 +1847,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{60245661-6B7B-FD4E-8C67-BB97938F9A9F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1231,7 +1860,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DD7C04AE-ED29-1B4F-8B41-BF4C7C59B2B1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.31</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1244,7 +1873,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A49504C4-191E-984A-86E3-E8C5BEB8D867}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.33</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1257,7 +1886,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{63000543-A23C-C64F-A2FC-A91E27944665}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.35</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1270,6 +1899,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CADE341D-668C-3A44-A415-8885BDD90BA6}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1301,27 +1931,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.40</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.46</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.48</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1372,7 +2002,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{48EC3786-ECF3-DF4E-813D-9F64E9C49DDA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.39</cx:f>
+              <cx:f>_xlchart.v1.27</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1385,7 +2015,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BB627CCA-E60F-4544-9275-56585D9222A4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.41</cx:f>
+              <cx:f>_xlchart.v1.29</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1398,7 +2028,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{824195ED-E0D0-A14E-BE02-A3FE691860B8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1411,7 +2041,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AAA422D2-0306-9C4A-9EE5-E6AADABA55F6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:f>_xlchart.v1.33</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1424,6 +2054,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3056638D-75F4-F648-B78D-E8265313167C}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1455,27 +2086,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.50</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.54</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.56</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.58</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1526,7 +2157,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0790E403-8102-DF40-83A2-B0A7C0F7BF96}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1539,7 +2170,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{93A6DE90-B652-1848-BF31-5DBA80E7559C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1552,7 +2183,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3EBB7E09-E8D2-2847-8F8D-ABBAEB4CC017}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1565,7 +2196,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6D5C393A-7BA6-154D-B6AA-DD4757426A30}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1578,6 +2209,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D5A1BB1E-42AC-9A44-8DCA-63D001E41486}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1609,27 +2241,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.60</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.62</cx:f>
+        <cx:f>_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.64</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.66</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.68</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1680,6 +2312,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B110F277-1F99-1C4E-9FBA-4CB1FCF8C27B}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1692,7 +2325,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D12FCF8C-CD78-A040-B0EE-8C2BD00DA638}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1705,7 +2338,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{16352244-F1CC-FC40-97C7-869A142CB421}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:f>_xlchart.v1.48</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1718,7 +2351,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E113C1BC-7889-104A-BF9F-9214F5EF31C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1731,6 +2364,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4445C655-B1D4-3E48-93DD-4F34150F1EF8}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1742,7 +2376,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1.5"/>
+        <cx:catScaling gapWidth="0.100000001"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -1781,27 +2415,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.80</cx:f>
+        <cx:f>_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.82</cx:f>
+        <cx:f>_xlchart.v1.56</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.84</cx:f>
+        <cx:f>_xlchart.v1.58</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.86</cx:f>
+        <cx:f>_xlchart.v1.60</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.87</cx:f>
+        <cx:f>_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1839,7 +2473,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BB9C5426-B747-884B-9133-E3CCB5D9F0EA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.79</cx:f>
+              <cx:f>_xlchart.v1.53</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1852,7 +2486,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6DAA2E87-F8DB-434D-AF89-5E7FA8598F6F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.81</cx:f>
+              <cx:f>_xlchart.v1.55</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1865,7 +2499,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{23A3C9E6-8C1D-694E-AF3E-2A1889AD7B83}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.83</cx:f>
+              <cx:f>_xlchart.v1.57</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1878,7 +2512,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{43B8B731-6A08-914C-A9C6-8264DE391C1D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.85</cx:f>
+              <cx:f>_xlchart.v1.59</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2158,6 +2792,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -5244,6 +5918,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5297,8 +6487,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5124450" y="10020300"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5146675" y="10331450"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5317,9 +6507,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5380,8 +6570,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6464300" y="4318000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6492875" y="4451350"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5400,9 +6590,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5463,8 +6653,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6464300" y="4318000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6492875" y="4451350"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5483,9 +6673,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5546,8 +6736,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6464300" y="4318000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6492875" y="4451350"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5566,9 +6756,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5629,8 +6819,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7023100" y="4673600"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="7054850" y="4819650"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5649,9 +6839,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5712,8 +6902,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5994400" y="2578100"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6019800" y="2654300"/>
+              <a:ext cx="4594225" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5732,9 +6922,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5743,11 +6933,47 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1A55BC-ACF1-4D8B-97E4-D95D287800B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6045,13 +7271,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S65" sqref="S65:S66"/>
+    <sheetView topLeftCell="D40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6125,7 +7351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -6199,7 +7425,7 @@
         <v>4.2887103991377497E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -6273,7 +7499,7 @@
         <v>2.4632897713342299E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -6347,7 +7573,7 @@
         <v>3.7760601221051501E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -6421,7 +7647,7 @@
         <v>8.6975367111975205E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -6495,7 +7721,7 @@
         <v>4.7741071583717903E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -6569,7 +7795,7 @@
         <v>6.00149349159248E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -6643,7 +7869,7 @@
         <v>3.4957469167399197E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -6717,7 +7943,7 @@
         <v>3.3374726518788998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -6791,7 +8017,7 @@
         <v>6.8046755228273303E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -6865,7 +8091,7 @@
         <v>3.3481940234755002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -6939,7 +8165,7 @@
         <v>2.7168923454827298E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -7013,7 +8239,7 @@
         <v>3.4430286972697899E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -7087,7 +8313,7 @@
         <v>0.126372457054962</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -7161,7 +8387,7 @@
         <v>4.21803935599099E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -7235,7 +8461,7 @@
         <v>2.7988703904912302E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -7309,7 +8535,7 @@
         <v>2.30454198425817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -7383,7 +8609,7 @@
         <v>6.6534595695554005E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -7457,7 +8683,7 @@
         <v>3.3371918761736098E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -7531,7 +8757,7 @@
         <v>4.7750561337968102E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -7605,7 +8831,7 @@
         <v>2.44497834161608E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -7679,7 +8905,7 @@
         <v>5.88253077280224E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -7753,7 +8979,7 @@
         <v>4.75647966106095E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -7827,7 +9053,7 @@
         <v>3.2141352098946502E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -7901,7 +9127,7 @@
         <v>8.2429591460633306E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -7975,7 +9201,7 @@
         <v>3.4482668517460999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -8049,7 +9275,7 @@
         <v>4.8945968129095699E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -8123,7 +9349,7 @@
         <v>2.31876848334229E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -8197,7 +9423,7 @@
         <v>8.3854948271767205E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -8271,7 +9497,7 @@
         <v>2.70377172861688E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -8345,7 +9571,7 @@
         <v>3.2566368879503101E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -8419,7 +9645,7 @@
         <v>6.5782206720965505E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -8493,7 +9719,7 @@
         <v>3.1498802552763099E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -8567,7 +9793,7 @@
         <v>5.0812065247019103E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -8641,7 +9867,7 @@
         <v>2.4899992588298701E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -8715,7 +9941,7 @@
         <v>4.7233116427160902E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -8789,7 +10015,7 @@
         <v>8.6739271962665093E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -8863,7 +10089,7 @@
         <v>3.19650522492241E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -8937,7 +10163,7 @@
         <v>0.104181583970339</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -9011,7 +10237,7 @@
         <v>5.5109753429522998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -9085,7 +10311,7 @@
         <v>0.115379534647057</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -9182,7 +10408,7 @@
         <v>2.30454198425817E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -9279,7 +10505,7 @@
         <v>3.2097277136515903E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -9376,7 +10602,7 @@
         <v>4.2533748775643698E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -9473,7 +10699,7 @@
         <v>6.145675286718498E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -9570,7 +10796,7 @@
         <v>0.126372457054962</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -9682,9 +10908,9 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_bag!A$1</f>
         <v>StockName</v>
@@ -9782,7 +11008,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_bag!A$31</f>
         <v>2330</v>
@@ -9880,7 +11106,7 @@
         <v>3.2566368879503101E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_bag!A$12</f>
         <v>2454</v>
@@ -9978,7 +11204,7 @@
         <v>2.7168923454827298E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_bag!A$28</f>
         <v>3034</v>
@@ -10076,7 +11302,7 @@
         <v>2.31876848334229E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_bag!A$18</f>
         <v>2379</v>
@@ -10174,7 +11400,7 @@
         <v>6.6534595695554005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_bag!A$25</f>
         <v>2408</v>
@@ -10272,7 +11498,7 @@
         <v>8.2429591460633306E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_bag!A$4</f>
         <v>2344</v>
@@ -10370,7 +11596,7 @@
         <v>3.7760601221051501E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_bag!A$37</f>
         <v>2337</v>
@@ -10468,7 +11694,7 @@
         <v>8.6739271962665093E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_bag!A$35</f>
         <v>3035</v>
@@ -10566,7 +11792,7 @@
         <v>2.4899992588298701E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_bag!A$5</f>
         <v>2449</v>
@@ -10664,7 +11890,7 @@
         <v>8.6975367111975205E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_bag!A$33</f>
         <v>2468</v>
@@ -10762,7 +11988,7 @@
         <v>3.1498802552763099E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -10859,7 +12085,7 @@
         <v>2.31876848334229E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -10956,7 +12182,7 @@
         <v>2.825139322931125E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -11053,7 +12279,7 @@
         <v>3.5163485050277304E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -11150,7 +12376,7 @@
         <v>7.8455842519363481E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -11247,7 +12473,7 @@
         <v>8.6975367111975205E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -11359,9 +12585,9 @@
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_bag!A$1</f>
         <v>StockName</v>
@@ -11459,7 +12685,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_bag!A$16</f>
         <v>1216</v>
@@ -11557,7 +12783,7 @@
         <v>2.7988703904912302E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_bag!A$36</f>
         <v>1229</v>
@@ -11655,7 +12881,7 @@
         <v>4.7233116427160902E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_bag!A$17</f>
         <v>1434</v>
@@ -11753,7 +12979,7 @@
         <v>2.30454198425817E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_bag!A$30</f>
         <v>1227</v>
@@ -11851,7 +13077,7 @@
         <v>2.70377172861688E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_bag!A$2</f>
         <v>1210</v>
@@ -11949,7 +13175,7 @@
         <v>4.2887103991377497E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_bag!A$10</f>
         <v>1232</v>
@@ -12047,7 +13273,7 @@
         <v>6.8046755228273303E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_bag!A$9</f>
         <v>1215</v>
@@ -12145,7 +13371,7 @@
         <v>3.3374726518788998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_bag!A$3</f>
         <v>1231</v>
@@ -12243,7 +13469,7 @@
         <v>2.4632897713342299E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_bag!A$23</f>
         <v>1218</v>
@@ -12341,7 +13567,7 @@
         <v>4.75647966106095E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_bag!A$24</f>
         <v>1702</v>
@@ -12439,7 +13665,7 @@
         <v>3.2141352098946502E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -12536,7 +13762,7 @@
         <v>2.30454198425817E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -12633,7 +13859,7 @@
         <v>2.7275463940854675E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -12730,7 +13956,7 @@
         <v>3.2758039308867754E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -12827,7 +14053,7 @@
         <v>4.6146613318215055E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -12924,7 +14150,7 @@
         <v>6.8046755228273303E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -13036,9 +14262,9 @@
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_bag!A$1</f>
         <v>StockName</v>
@@ -13136,7 +14362,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_bag!A$6</f>
         <v>2603</v>
@@ -13234,7 +14460,7 @@
         <v>4.7741071583717903E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_bag!A$20</f>
         <v>2609</v>
@@ -13332,7 +14558,7 @@
         <v>4.7750561337968102E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_bag!A$34</f>
         <v>2615</v>
@@ -13430,7 +14656,7 @@
         <v>5.0812065247019103E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_bag!A$40</f>
         <v>2618</v>
@@ -13528,7 +14754,7 @@
         <v>5.5109753429522998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_bag!A$27</f>
         <v>2610</v>
@@ -13626,7 +14852,7 @@
         <v>4.8945968129095699E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_bag!A$21</f>
         <v>2637</v>
@@ -13724,7 +14950,7 @@
         <v>2.44497834161608E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_bag!A$7</f>
         <v>2633</v>
@@ -13822,7 +15048,7 @@
         <v>6.00149349159248E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_bag!A$26</f>
         <v>2459</v>
@@ -13920,7 +15146,7 @@
         <v>3.4482668517460999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_bag!A$13</f>
         <v>2607</v>
@@ -14018,7 +15244,7 @@
         <v>3.4430286972697899E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_bag!A$14</f>
         <v>2634</v>
@@ -14116,7 +15342,7 @@
         <v>0.126372457054962</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -14213,7 +15439,7 @@
         <v>2.44497834161608E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -14310,7 +15536,7 @@
         <v>3.7797269284025228E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -14407,7 +15633,7 @@
         <v>4.8348264733531904E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -14504,7 +15730,7 @@
         <v>5.4035331383897024E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -14601,7 +15827,7 @@
         <v>0.126372457054962</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -14707,15 +15933,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W43" sqref="W43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_bag!A$1</f>
         <v>StockName</v>
@@ -14813,7 +16039,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_bag!A$32</f>
         <v>2412</v>
@@ -14911,7 +16137,7 @@
         <v>6.5782206720965505E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_bag!A$41</f>
         <v>3045</v>
@@ -15009,7 +16235,7 @@
         <v>0.115379534647057</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_bag!A$22</f>
         <v>4904</v>
@@ -15107,7 +16333,7 @@
         <v>5.88253077280224E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_bag!A$11</f>
         <v>2345</v>
@@ -15205,7 +16431,7 @@
         <v>3.3481940234755002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_bag!A$39</f>
         <v>2498</v>
@@ -15303,7 +16529,7 @@
         <v>0.104181583970339</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_bag!A$8</f>
         <v>3596</v>
@@ -15401,7 +16627,7 @@
         <v>3.4957469167399197E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_bag!A$15</f>
         <v>3682</v>
@@ -15499,7 +16725,7 @@
         <v>4.21803935599099E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_bag!A$29</f>
         <v>5388</v>
@@ -15597,7 +16823,7 @@
         <v>8.3854948271767205E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_bag!A$19</f>
         <v>2455</v>
@@ -15695,7 +16921,7 @@
         <v>3.3371918761736098E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_bag!A$38</f>
         <v>2439</v>
@@ -15793,7 +17019,7 @@
         <v>3.19650522492241E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -15890,7 +17116,7 @@
         <v>3.19650522492241E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -15987,7 +17213,7 @@
         <v>3.3850822467916049E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -16084,7 +17310,7 @@
         <v>5.0502850643966146E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -16181,7 +17407,7 @@
         <v>7.9336762884066783E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -16278,7 +17504,7 @@
         <v>0.115379534647057</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -16373,6 +17599,11 @@
       <c r="X17" s="1">
         <f t="shared" si="5"/>
         <v>3.1205555940985504E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -16386,13 +17617,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -16421,7 +17652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>38</v>
@@ -16466,7 +17697,7 @@
         <v>0.48783935302870102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -16518,7 +17749,7 @@
         <v>0.62492404358094422</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -16570,7 +17801,7 @@
         <v>0.67933398360454644</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -16622,7 +17853,7 @@
         <v>0.73427342160457543</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -16674,7 +17905,7 @@
         <v>0.80193191334108505</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
@@ -16686,7 +17917,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>38</v>
@@ -16704,7 +17935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -16729,7 +17960,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -16754,7 +17985,7 @@
         <v>0.92528735632183901</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
@@ -16779,7 +18010,7 @@
         <v>0.95375722543352603</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
@@ -16804,7 +18035,7 @@
         <v>0.88679245283018804</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
@@ -16814,7 +18045,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>38</v>
@@ -16832,7 +18063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -16857,7 +18088,7 @@
         <v>0.97080291970802901</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -16882,7 +18113,7 @@
         <v>0.88983050847457601</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -16907,7 +18138,7 @@
         <v>0.93805309734513198</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
@@ -16932,7 +18163,7 @@
         <v>0.92105263157894701</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -16942,7 +18173,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>38</v>
@@ -16960,7 +18191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -16985,7 +18216,7 @@
         <v>0.90769230769230702</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -17010,7 +18241,7 @@
         <v>0.90058479532163704</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -17035,7 +18266,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
@@ -17060,7 +18291,7 @@
         <v>0.900709219858156</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>36</v>
       </c>
@@ -17070,7 +18301,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -17088,7 +18319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
@@ -17113,7 +18344,7 @@
         <v>0.908474576271186</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
@@ -17138,7 +18369,7 @@
         <v>0.89152542372881305</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
@@ -17163,7 +18394,7 @@
         <v>0.90169491525423695</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
